--- a/restructure/data/battery_info.xlsx
+++ b/restructure/data/battery_info.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -4781,6 +4781,9391 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>100</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>61</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>61</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>61</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>61</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>61</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>61</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>61</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>61</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>61</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>61</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>61</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>61</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>61</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>61</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>61</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>61</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>61</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>61</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>61</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>61</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>61</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>61</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>61</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>18:00:01</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>61</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>61</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>61</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>100</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>100</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>100</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>100</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>100</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>100</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>100</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>100</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>100</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>100</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>100</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>100</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>100</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>100</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>100</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>100</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>100</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>100</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>100</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>100</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>100</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>100</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>100</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>100</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>100</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>100</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>21:00:01</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>100</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>100</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>100</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>100</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>100</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>100</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>100</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>100</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>100</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>100</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>100</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>100</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>100</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>100</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>100</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>100</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>100</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>100</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>100</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>100</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>01:30:01</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>100</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>100</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>100</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>100</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>100</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>100</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>100</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>100</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>100</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>100</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>100</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>100</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>100</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>100</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>100</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>100</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>100</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>100</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>100</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>100</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>100</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>100</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>100</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>100</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>100</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>100</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>100</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>100</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>100</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>100</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>100</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>100</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>100</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>100</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>100</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>100</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>100</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>100</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>100</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>100</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>100</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>100</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>100</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>100</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>100</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>100</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>100</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>100</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>100</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>100</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>100</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>100</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>100</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>100</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>100</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>100</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>100</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>100</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>100</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>100</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>100</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>100</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>100</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>100</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>100</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>100</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>100</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>100</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>100</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>100</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>100</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>100</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>100</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>100</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>100</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>100</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>100</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>100</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>100</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>100</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>100</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>100</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>100</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>100</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>15:00:01</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>100</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>100</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>100</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>100</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>100</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>100</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>100</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>100</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>100</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>100</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>100</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>100</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>100</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>100</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>100</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>100</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>100</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>100</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>100</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>100</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>100</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>100</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>100</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>100</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>100</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>100</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>100</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>100</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>100</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>100</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>100</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>100</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>100</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>100</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>100</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>100</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>100</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>100</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>100</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>100</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>100</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>100</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>100</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>100</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>100</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>15:00:01</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>100</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>100</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>100</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>100</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>100</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>100</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>100</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>100</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>100</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>100</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>100</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>100</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>100</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>100</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>100</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>100</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>100</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>100</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>100</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>100</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F332" t="n">
+        <v>100</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>100</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>100</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>100</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>100</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>100</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>100</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>100</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>100</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>100</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>100</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>18:00:01</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>100</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>21:00:01</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F344" t="n">
+        <v>100</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>100</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F346" t="n">
+        <v>100</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F347" t="n">
+        <v>100</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>100</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F349" t="n">
+        <v>100</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F350" t="n">
+        <v>100</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F351" t="n">
+        <v>100</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F352" t="n">
+        <v>100</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>100</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F354" t="n">
+        <v>100</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F355" t="n">
+        <v>100</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F356" t="n">
+        <v>100</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F357" t="n">
+        <v>100</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>15:00:01</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F358" t="n">
+        <v>100</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>77</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F360" t="n">
+        <v>77</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F361" t="n">
+        <v>77</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F362" t="n">
+        <v>77</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/restructure/data/battery_info.xlsx
+++ b/restructure/data/battery_info.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H362"/>
+  <dimension ref="A1:H568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -14166,6 +14166,8246 @@
         </is>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>83</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F364" t="n">
+        <v>83</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>83</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>12:00:01</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>83</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>100</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>100</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>100</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F370" t="n">
+        <v>100</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F371" t="n">
+        <v>100</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>100</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>100</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F374" t="n">
+        <v>100</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F375" t="n">
+        <v>100</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F376" t="n">
+        <v>100</v>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>100</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F378" t="n">
+        <v>100</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>100</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F380" t="n">
+        <v>100</v>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F381" t="n">
+        <v>100</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>100</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F383" t="n">
+        <v>100</v>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F384" t="n">
+        <v>100</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>100</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>100</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>100</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>100</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>100</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>100</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>100</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>100</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>100</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>100</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>100</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>100</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>100</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>100</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>100</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>100</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>100</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F402" t="n">
+        <v>100</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>100</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>100</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>100</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>100</v>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F407" t="n">
+        <v>100</v>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>100</v>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>100</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>100</v>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>100</v>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>100</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>100</v>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>100</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>100</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F416" t="n">
+        <v>100</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F417" t="n">
+        <v>100</v>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F418" t="n">
+        <v>100</v>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F419" t="n">
+        <v>100</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>100</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F421" t="n">
+        <v>100</v>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F422" t="n">
+        <v>100</v>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F423" t="n">
+        <v>100</v>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F424" t="n">
+        <v>100</v>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F425" t="n">
+        <v>100</v>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F426" t="n">
+        <v>100</v>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>100</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F428" t="n">
+        <v>100</v>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F429" t="n">
+        <v>100</v>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>100</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F431" t="n">
+        <v>100</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F432" t="n">
+        <v>100</v>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F433" t="n">
+        <v>100</v>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F434" t="n">
+        <v>100</v>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F435" t="n">
+        <v>100</v>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F436" t="n">
+        <v>100</v>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F437" t="n">
+        <v>100</v>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F438" t="n">
+        <v>100</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F439" t="n">
+        <v>100</v>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>100</v>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F441" t="n">
+        <v>100</v>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F442" t="n">
+        <v>100</v>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F443" t="n">
+        <v>100</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F444" t="n">
+        <v>100</v>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F445" t="n">
+        <v>100</v>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F446" t="n">
+        <v>100</v>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F447" t="n">
+        <v>100</v>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F448" t="n">
+        <v>100</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>01:30:01</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F449" t="n">
+        <v>100</v>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F450" t="n">
+        <v>100</v>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F451" t="n">
+        <v>100</v>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F452" t="n">
+        <v>100</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>100</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F454" t="n">
+        <v>100</v>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F455" t="n">
+        <v>100</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F456" t="n">
+        <v>100</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F457" t="n">
+        <v>100</v>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F458" t="n">
+        <v>100</v>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F459" t="n">
+        <v>100</v>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F460" t="n">
+        <v>100</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F461" t="n">
+        <v>97</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F462" t="n">
+        <v>97</v>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F463" t="n">
+        <v>97</v>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F464" t="n">
+        <v>97</v>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F465" t="n">
+        <v>97</v>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F466" t="n">
+        <v>97</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F467" t="n">
+        <v>97</v>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F468" t="n">
+        <v>97</v>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F469" t="n">
+        <v>97</v>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F470" t="n">
+        <v>97</v>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F471" t="n">
+        <v>97</v>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F472" t="n">
+        <v>97</v>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F473" t="n">
+        <v>97</v>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F474" t="n">
+        <v>97</v>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F475" t="n">
+        <v>97</v>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F476" t="n">
+        <v>97</v>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F477" t="n">
+        <v>97</v>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>97</v>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F479" t="n">
+        <v>97</v>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F480" t="n">
+        <v>97</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>97</v>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F482" t="n">
+        <v>97</v>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F483" t="n">
+        <v>97</v>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F484" t="n">
+        <v>97</v>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F485" t="n">
+        <v>97</v>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>97</v>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>97</v>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F488" t="n">
+        <v>97</v>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>97</v>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>97</v>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F491" t="n">
+        <v>97</v>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F492" t="n">
+        <v>97</v>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>97</v>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F494" t="n">
+        <v>97</v>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>97</v>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>97</v>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>97</v>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>97</v>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>97</v>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F500" t="n">
+        <v>97</v>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>97</v>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>97</v>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>97</v>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F504" t="n">
+        <v>65</v>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>65</v>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>65</v>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>65</v>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>65</v>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>65</v>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>65</v>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>65</v>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>65</v>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>65</v>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>65</v>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>65</v>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>65</v>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>65</v>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>65</v>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>65</v>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>65</v>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>65</v>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>65</v>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>65</v>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>65</v>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>65</v>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>65</v>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>65</v>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>65</v>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>65</v>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>21:00:01</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>65</v>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>65</v>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>65</v>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>65</v>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>65</v>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>65</v>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>65</v>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>65</v>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>65</v>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>65</v>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>65</v>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>65</v>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>65</v>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>65</v>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>65</v>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>65</v>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>65</v>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>64</v>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>64</v>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>64</v>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>64</v>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>64</v>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>64</v>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>64</v>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>64</v>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>64</v>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>64</v>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>64</v>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>64</v>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>64</v>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>64</v>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>64</v>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>64</v>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>64</v>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>64</v>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>64</v>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>64</v>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>64</v>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>64</v>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/restructure/data/battery_info.xlsx
+++ b/restructure/data/battery_info.xlsx
@@ -53,9 +53,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +422,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H568"/>
+  <dimension ref="A1:H636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -750,6 +751,11 @@
       <c r="F8" t="n">
         <v>100</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>53</t>
@@ -785,6 +791,11 @@
       <c r="F9" t="n">
         <v>100</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>53</t>
@@ -820,6 +831,11 @@
       <c r="F10" t="n">
         <v>100</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>53</t>
@@ -1175,6 +1191,11 @@
       <c r="F19" t="n">
         <v>65</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>53</t>
@@ -4850,6 +4871,11 @@
       <c r="F111" t="n">
         <v>61</v>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
           <t>63</t>
@@ -4885,6 +4911,11 @@
       <c r="F112" t="n">
         <v>61</v>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
           <t>63</t>
@@ -4920,6 +4951,11 @@
       <c r="F113" t="n">
         <v>61</v>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
           <t>63</t>
@@ -4955,6 +4991,11 @@
       <c r="F114" t="n">
         <v>61</v>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
           <t>63</t>
@@ -4990,6 +5031,11 @@
       <c r="F115" t="n">
         <v>61</v>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
           <t>63</t>
@@ -5025,6 +5071,11 @@
       <c r="F116" t="n">
         <v>61</v>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
           <t>63</t>
@@ -5060,6 +5111,11 @@
       <c r="F117" t="n">
         <v>61</v>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
           <t>63</t>
@@ -5095,6 +5151,11 @@
       <c r="F118" t="n">
         <v>61</v>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
           <t>64</t>
@@ -5130,6 +5191,11 @@
       <c r="F119" t="n">
         <v>61</v>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
           <t>64</t>
@@ -5165,6 +5231,11 @@
       <c r="F120" t="n">
         <v>61</v>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
           <t>64</t>
@@ -5200,6 +5271,11 @@
       <c r="F121" t="n">
         <v>61</v>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr">
         <is>
           <t>64</t>
@@ -5235,6 +5311,11 @@
       <c r="F122" t="n">
         <v>61</v>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
           <t>64</t>
@@ -5270,6 +5351,11 @@
       <c r="F123" t="n">
         <v>61</v>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
           <t>64</t>
@@ -5305,6 +5391,11 @@
       <c r="F124" t="n">
         <v>61</v>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>64</t>
@@ -5340,6 +5431,11 @@
       <c r="F125" t="n">
         <v>61</v>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>64</t>
@@ -5375,6 +5471,11 @@
       <c r="F126" t="n">
         <v>61</v>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t>64</t>
@@ -5410,6 +5511,11 @@
       <c r="F127" t="n">
         <v>61</v>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>65</t>
@@ -5445,6 +5551,11 @@
       <c r="F128" t="n">
         <v>61</v>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>65</t>
@@ -5480,6 +5591,11 @@
       <c r="F129" t="n">
         <v>61</v>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
           <t>65</t>
@@ -5515,6 +5631,11 @@
       <c r="F130" t="n">
         <v>61</v>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
           <t>65</t>
@@ -5550,6 +5671,11 @@
       <c r="F131" t="n">
         <v>61</v>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
           <t>65</t>
@@ -5585,6 +5711,11 @@
       <c r="F132" t="n">
         <v>61</v>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr">
         <is>
           <t>65</t>
@@ -5620,6 +5751,11 @@
       <c r="F133" t="n">
         <v>61</v>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr">
         <is>
           <t>65</t>
@@ -5655,6 +5791,11 @@
       <c r="F134" t="n">
         <v>61</v>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
           <t>65</t>
@@ -5690,6 +5831,11 @@
       <c r="F135" t="n">
         <v>61</v>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
           <t>66</t>
@@ -5725,6 +5871,11 @@
       <c r="F136" t="n">
         <v>61</v>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
           <t>66</t>
@@ -6000,6 +6151,11 @@
       <c r="F143" t="n">
         <v>100</v>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr">
         <is>
           <t>68</t>
@@ -6035,6 +6191,11 @@
       <c r="F144" t="n">
         <v>100</v>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H144" t="inlineStr">
         <is>
           <t>68</t>
@@ -6070,6 +6231,11 @@
       <c r="F145" t="n">
         <v>100</v>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr">
         <is>
           <t>68</t>
@@ -6105,6 +6271,11 @@
       <c r="F146" t="n">
         <v>100</v>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
           <t>68</t>
@@ -6140,6 +6311,11 @@
       <c r="F147" t="n">
         <v>100</v>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr">
         <is>
           <t>68</t>
@@ -6175,6 +6351,11 @@
       <c r="F148" t="n">
         <v>100</v>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr">
         <is>
           <t>68</t>
@@ -6210,6 +6391,11 @@
       <c r="F149" t="n">
         <v>100</v>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr">
         <is>
           <t>68</t>
@@ -6245,6 +6431,11 @@
       <c r="F150" t="n">
         <v>100</v>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr">
         <is>
           <t>68</t>
@@ -6280,6 +6471,11 @@
       <c r="F151" t="n">
         <v>100</v>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H151" t="inlineStr">
         <is>
           <t>68</t>
@@ -6315,6 +6511,11 @@
       <c r="F152" t="n">
         <v>100</v>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H152" t="inlineStr">
         <is>
           <t>68</t>
@@ -6350,6 +6551,11 @@
       <c r="F153" t="n">
         <v>100</v>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr">
         <is>
           <t>68</t>
@@ -6385,6 +6591,11 @@
       <c r="F154" t="n">
         <v>100</v>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
           <t>68</t>
@@ -6420,6 +6631,11 @@
       <c r="F155" t="n">
         <v>100</v>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr">
         <is>
           <t>68</t>
@@ -6455,6 +6671,11 @@
       <c r="F156" t="n">
         <v>100</v>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H156" t="inlineStr">
         <is>
           <t>69</t>
@@ -6490,6 +6711,11 @@
       <c r="F157" t="n">
         <v>100</v>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H157" t="inlineStr">
         <is>
           <t>69</t>
@@ -6525,6 +6751,11 @@
       <c r="F158" t="n">
         <v>100</v>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr">
         <is>
           <t>69</t>
@@ -6560,6 +6791,11 @@
       <c r="F159" t="n">
         <v>100</v>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr">
         <is>
           <t>69</t>
@@ -6595,6 +6831,11 @@
       <c r="F160" t="n">
         <v>100</v>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr">
         <is>
           <t>69</t>
@@ -6630,6 +6871,11 @@
       <c r="F161" t="n">
         <v>100</v>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr">
         <is>
           <t>69</t>
@@ -6665,6 +6911,11 @@
       <c r="F162" t="n">
         <v>100</v>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H162" t="inlineStr">
         <is>
           <t>69</t>
@@ -6700,6 +6951,11 @@
       <c r="F163" t="n">
         <v>100</v>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H163" t="inlineStr">
         <is>
           <t>69</t>
@@ -6735,6 +6991,11 @@
       <c r="F164" t="n">
         <v>100</v>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H164" t="inlineStr">
         <is>
           <t>69</t>
@@ -6770,6 +7031,11 @@
       <c r="F165" t="n">
         <v>100</v>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H165" t="inlineStr">
         <is>
           <t>69</t>
@@ -6805,6 +7071,11 @@
       <c r="F166" t="n">
         <v>100</v>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H166" t="inlineStr">
         <is>
           <t>69</t>
@@ -6840,6 +7111,11 @@
       <c r="F167" t="n">
         <v>100</v>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H167" t="inlineStr">
         <is>
           <t>69</t>
@@ -6875,6 +7151,11 @@
       <c r="F168" t="n">
         <v>100</v>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr">
         <is>
           <t>70</t>
@@ -6910,6 +7191,11 @@
       <c r="F169" t="n">
         <v>100</v>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H169" t="inlineStr">
         <is>
           <t>70</t>
@@ -6945,6 +7231,11 @@
       <c r="F170" t="n">
         <v>100</v>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H170" t="inlineStr">
         <is>
           <t>70</t>
@@ -6980,6 +7271,11 @@
       <c r="F171" t="n">
         <v>100</v>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr">
         <is>
           <t>70</t>
@@ -7015,6 +7311,11 @@
       <c r="F172" t="n">
         <v>100</v>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H172" t="inlineStr">
         <is>
           <t>70</t>
@@ -7050,6 +7351,11 @@
       <c r="F173" t="n">
         <v>100</v>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H173" t="inlineStr">
         <is>
           <t>70</t>
@@ -7085,6 +7391,11 @@
       <c r="F174" t="n">
         <v>100</v>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr">
         <is>
           <t>70</t>
@@ -7120,6 +7431,11 @@
       <c r="F175" t="n">
         <v>100</v>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H175" t="inlineStr">
         <is>
           <t>70</t>
@@ -7155,6 +7471,11 @@
       <c r="F176" t="n">
         <v>100</v>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr">
         <is>
           <t>70</t>
@@ -7190,6 +7511,11 @@
       <c r="F177" t="n">
         <v>100</v>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H177" t="inlineStr">
         <is>
           <t>70</t>
@@ -7225,6 +7551,11 @@
       <c r="F178" t="n">
         <v>100</v>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr">
         <is>
           <t>70</t>
@@ -7260,6 +7591,11 @@
       <c r="F179" t="n">
         <v>100</v>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H179" t="inlineStr">
         <is>
           <t>71</t>
@@ -7295,6 +7631,11 @@
       <c r="F180" t="n">
         <v>100</v>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr">
         <is>
           <t>71</t>
@@ -7330,6 +7671,11 @@
       <c r="F181" t="n">
         <v>100</v>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr">
         <is>
           <t>71</t>
@@ -7365,6 +7711,11 @@
       <c r="F182" t="n">
         <v>100</v>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H182" t="inlineStr">
         <is>
           <t>71</t>
@@ -7400,6 +7751,11 @@
       <c r="F183" t="n">
         <v>100</v>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H183" t="inlineStr">
         <is>
           <t>71</t>
@@ -7435,6 +7791,11 @@
       <c r="F184" t="n">
         <v>100</v>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H184" t="inlineStr">
         <is>
           <t>71</t>
@@ -7470,6 +7831,11 @@
       <c r="F185" t="n">
         <v>100</v>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H185" t="inlineStr">
         <is>
           <t>71</t>
@@ -7505,6 +7871,11 @@
       <c r="F186" t="n">
         <v>100</v>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H186" t="inlineStr">
         <is>
           <t>71</t>
@@ -7540,6 +7911,11 @@
       <c r="F187" t="n">
         <v>100</v>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H187" t="inlineStr">
         <is>
           <t>71</t>
@@ -7575,6 +7951,11 @@
       <c r="F188" t="n">
         <v>100</v>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H188" t="inlineStr">
         <is>
           <t>71</t>
@@ -7610,6 +7991,11 @@
       <c r="F189" t="n">
         <v>100</v>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H189" t="inlineStr">
         <is>
           <t>71</t>
@@ -7645,6 +8031,11 @@
       <c r="F190" t="n">
         <v>100</v>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
       <c r="H190" t="inlineStr">
         <is>
           <t>71</t>
@@ -7680,6 +8071,7 @@
       <c r="F191" t="n">
         <v>100</v>
       </c>
+      <c r="G191" s="2" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
           <t>72</t>
@@ -22403,6 +22795,2726 @@
       <c r="H568" t="inlineStr">
         <is>
           <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>64</v>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>64</v>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>64</v>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>64</v>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>64</v>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>64</v>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>64</v>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>64</v>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>64</v>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>64</v>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>64</v>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>64</v>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>64</v>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>64</v>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>64</v>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>64</v>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>64</v>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>64</v>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>64</v>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>64</v>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>64</v>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>64</v>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>64</v>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>92</v>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Unplugged</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>92</v>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>97</v>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>97</v>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>97</v>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>97</v>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>97</v>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>97</v>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>97</v>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>97</v>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>97</v>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>97</v>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>97</v>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>97</v>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>21:00:01</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>97</v>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>97</v>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>97</v>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>97</v>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>97</v>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>97</v>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F612" t="n">
+        <v>97</v>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>97</v>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>97</v>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>97</v>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>97</v>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>97</v>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>97</v>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>97</v>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>97</v>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>97</v>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>97</v>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>97</v>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>97</v>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>97</v>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>15:00:01</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>97</v>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>97</v>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>97</v>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>97</v>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>97</v>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>97</v>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>97</v>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>97</v>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>97</v>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>97</v>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>97</v>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>114</t>
         </is>
       </c>
     </row>

--- a/restructure/data/battery_info.xlsx
+++ b/restructure/data/battery_info.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H636"/>
+  <dimension ref="A1:H736"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
       <selection activeCell="I192" sqref="I192"/>
@@ -25518,6 +25518,4006 @@
         </is>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>88</v>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>88</v>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>88</v>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>88</v>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>88</v>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>88</v>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>88</v>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>88</v>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>88</v>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>88</v>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>88</v>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>88</v>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>88</v>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>88</v>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>88</v>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>88</v>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>88</v>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>88</v>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>88</v>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>88</v>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>88</v>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>95</v>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>95</v>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F660" t="n">
+        <v>95</v>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>95</v>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>95</v>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>95</v>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>95</v>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>95</v>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>95</v>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>95</v>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>95</v>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>95</v>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>95</v>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>95</v>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>95</v>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>95</v>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>95</v>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>95</v>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>95</v>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>95</v>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>95</v>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>95</v>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>95</v>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>95</v>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>95</v>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>95</v>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>100</v>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>100</v>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>100</v>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>100</v>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>100</v>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>100</v>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>100</v>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>100</v>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>100</v>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>100</v>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>100</v>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>100</v>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>100</v>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>100</v>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>100</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>100</v>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>100</v>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>100</v>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>100</v>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>100</v>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>100</v>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>100</v>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>100</v>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>100</v>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>100</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F709" t="n">
+        <v>100</v>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F710" t="n">
+        <v>100</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>finishing</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F711" t="n">
+        <v>100</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F712" t="n">
+        <v>100</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F713" t="n">
+        <v>100</v>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F714" t="n">
+        <v>100</v>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F715" t="n">
+        <v>100</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F716" t="n">
+        <v>100</v>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F717" t="n">
+        <v>100</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F718" t="n">
+        <v>100</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F719" t="n">
+        <v>100</v>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>18:00:01</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F720" t="n">
+        <v>100</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F721" t="n">
+        <v>100</v>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F722" t="n">
+        <v>100</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F723" t="n">
+        <v>100</v>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F724" t="n">
+        <v>100</v>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F725" t="n">
+        <v>100</v>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F726" t="n">
+        <v>100</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F727" t="n">
+        <v>100</v>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F728" t="n">
+        <v>100</v>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F729" t="n">
+        <v>100</v>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F730" t="n">
+        <v>100</v>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>discharging;</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F731" t="n">
+        <v>100</v>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>charging;</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F732" t="n">
+        <v>100</v>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F733" t="n">
+        <v>100</v>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F734" t="n">
+        <v>100</v>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F735" t="n">
+        <v>100</v>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Plugged</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>charged;</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F736" t="n">
+        <v>100</v>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
